--- a/pms-server/uploadfiles/template/master_bom_template.xlsx
+++ b/pms-server/uploadfiles/template/master_bom_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Part No.</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Dep</t>
   </si>
   <si>
+    <t>Project Name</t>
+  </si>
+  <si>
     <t>Delete</t>
   </si>
 </sst>
@@ -39,9 +42,9 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <name val="DejaVu Sans"/>
+      <name val="文泉驿正黑"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -58,6 +61,12 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -103,8 +112,9 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -122,35 +132,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.73725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.8666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.1294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.443137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.02745098039216"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
